--- a/stocksqllite.xlsx
+++ b/stocksqllite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="155">
   <si>
     <t>stock_id</t>
   </si>
@@ -234,13 +234,262 @@
   </si>
   <si>
     <t>^GSPC 的圖表</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>now price</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>52w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raise </t>
+  </si>
+  <si>
+    <t>raise %</t>
+  </si>
+  <si>
+    <t>trade voloume</t>
+  </si>
+  <si>
+    <t>pre price</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>profit per stock</t>
+  </si>
+  <si>
+    <t>profit and earn</t>
+  </si>
+  <si>
+    <t>day hig</t>
+  </si>
+  <si>
+    <t>day low</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0=世茂房地產</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1=(0813.HK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2=15.640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3=0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4=(0.256%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5=03月1日,星期五,15:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6=15.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7=15.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8=不適用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9=不適用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10=11.470</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11=不適用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12=不適用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13=15.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14=-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15=16.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16=7.720</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17=-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18=17.640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19=5,950,354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20=9,629,990</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21=54.32B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22=7.820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23=1.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24=0.400(2.630%)</t>
+  </si>
+  <si>
+    <t>noew price</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>changepercent</t>
+  </si>
+  <si>
+    <t>yetserday price</t>
+  </si>
+  <si>
+    <t>high price</t>
+  </si>
+  <si>
+    <t>low price</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>last trade date</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>52 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("name").put(stocknameno[0]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("stockno").put(stocknameno[1]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("price").put(stockdetailplit[i][0]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("change").put(stockdetailplit[i][1]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("changepercent").put(stockdetailplit[i][2]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("date").put(stockdetailplit[i][3]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("preprice").put(stockdetailplit[i][4]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("daylow").put(stockdetailplit[i][11]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("dayhig").put(stockdetailplit[i][13]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("52low").put(stockdetailplit[i][14]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("52high").put(stockdetailplit[i][16]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("volume").put(stockdetailplit[i][17]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("marketcap").put(stockdetailplit[i][19]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("pe").put(stockdetailplit[i][20]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("profit").put(stockdetailplit[i][21]);</t>
+  </si>
+  <si>
+    <t>open price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("openprice").put(stockdetailplit[i][7]);</t>
+  </si>
+  <si>
+    <t>不適用</t>
+  </si>
+  <si>
+    <t>change percent</t>
+  </si>
+  <si>
+    <t>pre day</t>
+  </si>
+  <si>
+    <t>market cap</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>day range</t>
+  </si>
+  <si>
+    <t>HSBC Holdings PLC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10:16amHKT</t>
+  </si>
+  <si>
+    <t>59.80-88.45</t>
+  </si>
+  <si>
+    <t>(-0.71%)</t>
+  </si>
+  <si>
+    <t>1.54T</t>
+  </si>
+  <si>
+    <t>3.49(4.16)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +518,20 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,7 +557,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,6 +568,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="K17" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,21 +888,21 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1">
         <v>0</v>
       </c>
@@ -642,29 +918,29 @@
       <c r="E1">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>1</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>3</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>4</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>5</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -680,34 +956,34 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="45">
-      <c r="I3" s="5" t="s">
+    <row r="3" spans="1:17" ht="45">
+      <c r="J3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -723,41 +999,41 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -773,41 +1049,41 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -823,46 +1099,46 @@
       <c r="E6">
         <v>15.26</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="9">
         <v>0.1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>6.6E-3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15.48</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>15.06</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>15.2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>15.16</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5741765</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7.58</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.9991000000000001</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>0</v>
       </c>
@@ -878,23 +1154,23 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -910,23 +1186,24 @@
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -942,23 +1219,24 @@
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -974,188 +1252,739 @@
       <c r="E12" s="4">
         <v>6.6E-3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4"/>
+      <c r="G12" s="9">
         <v>15.48</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>15.06</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>15.2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>15.16</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="19" spans="1:13">
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12">
+        <v>83.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" s="12">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="7">
         <v>21708.98</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>-135.05000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" s="12">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="4">
         <v>-6.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26" s="12">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7">
         <v>10399.16</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28" s="13">
+        <v>3040422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>-128.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29" s="12">
+        <v>84.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="4">
         <v>-1.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30" s="13">
+        <v>12517100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31" s="12">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33" s="12">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="7">
         <v>4297.22</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75">
       <c r="A35">
         <v>-24.62</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="4">
         <v>-5.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40">
+        <v>17</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="F41">
+        <v>18</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="7">
         <v>1973.52</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>-17.64</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="E44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="4">
         <v>-8.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="F45">
+        <v>22</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="7">
         <v>7854.06</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>-82.68</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="4">
         <v>-1.04E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="F53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="F54" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="7">
         <v>2129.16</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="F55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>-21.48</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="4">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="F58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="F62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:7">
       <c r="A64" s="7">
         <v>12878.13</v>
       </c>
@@ -1223,6 +2052,176 @@
     <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1230,6 +2229,7 @@
     <hyperlink ref="A18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
